--- a/natmiOut/OldD4/LR-pairs_lrc2p/Muc2-Agr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Muc2-Agr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Muc2</t>
   </si>
   <si>
     <t>Agr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,185 +525,929 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.40235202032063</v>
+        <v>0.152316</v>
       </c>
       <c r="H2">
-        <v>1.40235202032063</v>
+        <v>0.456948</v>
       </c>
       <c r="I2">
-        <v>0.6277202931469165</v>
+        <v>0.02565503868961832</v>
       </c>
       <c r="J2">
-        <v>0.6277202931469165</v>
+        <v>0.02567834366287792</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.09774379177032</v>
+        <v>4.634525666666667</v>
       </c>
       <c r="N2">
-        <v>3.09774379177032</v>
+        <v>13.903577</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9457707374909784</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9457707374909784</v>
       </c>
       <c r="Q2">
-        <v>4.344127264824797</v>
+        <v>0.7059124114440001</v>
       </c>
       <c r="R2">
-        <v>4.344127264824797</v>
+        <v>6.353211702996</v>
       </c>
       <c r="S2">
-        <v>0.6277202931469165</v>
+        <v>0.0242637848618399</v>
       </c>
       <c r="T2">
-        <v>0.6277202931469165</v>
+        <v>0.02428582602358684</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.153003185015875</v>
+        <v>0.152316</v>
       </c>
       <c r="H3">
-        <v>0.153003185015875</v>
+        <v>0.456948</v>
       </c>
       <c r="I3">
-        <v>0.06848722913995439</v>
+        <v>0.02565503868961832</v>
       </c>
       <c r="J3">
-        <v>0.06848722913995439</v>
+        <v>0.02567834366287792</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>3.09774379177032</v>
+        <v>0.09834366666666666</v>
       </c>
       <c r="N3">
-        <v>3.09774379177032</v>
+        <v>0.295031</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02006905751323568</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02006905751323568</v>
       </c>
       <c r="Q3">
-        <v>0.4739646665040124</v>
+        <v>0.014979313932</v>
       </c>
       <c r="R3">
-        <v>0.4739646665040124</v>
+        <v>0.134813825388</v>
       </c>
       <c r="S3">
-        <v>0.06848722913995439</v>
+        <v>0.0005148724469662366</v>
       </c>
       <c r="T3">
-        <v>0.06848722913995439</v>
+        <v>0.000515340155814928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.152316</v>
+      </c>
+      <c r="H4">
+        <v>0.456948</v>
+      </c>
+      <c r="I4">
+        <v>0.02565503868961832</v>
+      </c>
+      <c r="J4">
+        <v>0.02567834366287792</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.167394</v>
+      </c>
+      <c r="N4">
+        <v>0.502182</v>
+      </c>
+      <c r="O4">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="P4">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="Q4">
+        <v>0.025496784504</v>
+      </c>
+      <c r="R4">
+        <v>0.229471060536</v>
+      </c>
+      <c r="S4">
+        <v>0.0008763813808121813</v>
+      </c>
+      <c r="T4">
+        <v>0.0008771774834761506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.738850666666667</v>
+      </c>
+      <c r="H5">
+        <v>14.216552</v>
+      </c>
+      <c r="I5">
+        <v>0.7981787678094021</v>
+      </c>
+      <c r="J5">
+        <v>0.7989038314144594</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.634525666666667</v>
+      </c>
+      <c r="N5">
+        <v>13.903577</v>
+      </c>
+      <c r="O5">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="P5">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="Q5">
+        <v>21.96232504516711</v>
+      </c>
+      <c r="R5">
+        <v>197.660925406504</v>
+      </c>
+      <c r="S5">
+        <v>0.7548941218807387</v>
+      </c>
+      <c r="T5">
+        <v>0.7555798658212216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.738850666666667</v>
+      </c>
+      <c r="H6">
+        <v>14.216552</v>
+      </c>
+      <c r="I6">
+        <v>0.7981787678094021</v>
+      </c>
+      <c r="J6">
+        <v>0.7989038314144594</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.09834366666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.295031</v>
+      </c>
+      <c r="O6">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="P6">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="Q6">
+        <v>0.4660359503457778</v>
+      </c>
+      <c r="R6">
+        <v>4.194323553112</v>
+      </c>
+      <c r="S6">
+        <v>0.01601869559701048</v>
+      </c>
+      <c r="T6">
+        <v>0.01603324694020113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.738850666666667</v>
+      </c>
+      <c r="H7">
+        <v>14.216552</v>
+      </c>
+      <c r="I7">
+        <v>0.7981787678094021</v>
+      </c>
+      <c r="J7">
+        <v>0.7989038314144594</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.167394</v>
+      </c>
+      <c r="N7">
+        <v>0.502182</v>
+      </c>
+      <c r="O7">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="P7">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="Q7">
+        <v>0.7932551684960001</v>
+      </c>
+      <c r="R7">
+        <v>7.139296516464</v>
+      </c>
+      <c r="S7">
+        <v>0.02726595033165301</v>
+      </c>
+      <c r="T7">
+        <v>0.02729071865303675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.170899</v>
+      </c>
+      <c r="H8">
+        <v>0.512697</v>
+      </c>
+      <c r="I8">
+        <v>0.02878502886772946</v>
+      </c>
+      <c r="J8">
+        <v>0.02881117711627257</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.634525666666667</v>
+      </c>
+      <c r="N8">
+        <v>13.903577</v>
+      </c>
+      <c r="O8">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="P8">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="Q8">
+        <v>0.7920358019076666</v>
+      </c>
+      <c r="R8">
+        <v>7.128322217169</v>
+      </c>
+      <c r="S8">
+        <v>0.02722403798093159</v>
+      </c>
+      <c r="T8">
+        <v>0.02724876822924031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.170899</v>
+      </c>
+      <c r="H9">
+        <v>0.512697</v>
+      </c>
+      <c r="I9">
+        <v>0.02878502886772946</v>
+      </c>
+      <c r="J9">
+        <v>0.02881117711627257</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.09834366666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.295031</v>
+      </c>
+      <c r="O9">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="P9">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="Q9">
+        <v>0.01680683428966667</v>
+      </c>
+      <c r="R9">
+        <v>0.151261508607</v>
+      </c>
+      <c r="S9">
+        <v>0.000577688399866612</v>
+      </c>
+      <c r="T9">
+        <v>0.0005782131705704941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.170899</v>
+      </c>
+      <c r="H10">
+        <v>0.512697</v>
+      </c>
+      <c r="I10">
+        <v>0.02878502886772946</v>
+      </c>
+      <c r="J10">
+        <v>0.02881117711627257</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.167394</v>
+      </c>
+      <c r="N10">
+        <v>0.502182</v>
+      </c>
+      <c r="O10">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="P10">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="Q10">
+        <v>0.028607467206</v>
+      </c>
+      <c r="R10">
+        <v>0.257467204854</v>
+      </c>
+      <c r="S10">
+        <v>0.0009833024869312546</v>
+      </c>
+      <c r="T10">
+        <v>0.0009841957164617679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8588486666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.576546</v>
+      </c>
+      <c r="I11">
+        <v>0.1446584454151923</v>
+      </c>
+      <c r="J11">
+        <v>0.1447898527867798</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.634525666666667</v>
+      </c>
+      <c r="N11">
+        <v>13.903577</v>
+      </c>
+      <c r="O11">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="P11">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="Q11">
+        <v>3.980356189449112</v>
+      </c>
+      <c r="R11">
+        <v>35.823205705042</v>
+      </c>
+      <c r="S11">
+        <v>0.1368137246046249</v>
+      </c>
+      <c r="T11">
+        <v>0.1369380058513629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8588486666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.576546</v>
+      </c>
+      <c r="I12">
+        <v>0.1446584454151923</v>
+      </c>
+      <c r="J12">
+        <v>0.1447898527867798</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09834366666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.295031</v>
+      </c>
+      <c r="O12">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="P12">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="Q12">
+        <v>0.08446232699177778</v>
+      </c>
+      <c r="R12">
+        <v>0.760160942926</v>
+      </c>
+      <c r="S12">
+        <v>0.00290315866081276</v>
+      </c>
+      <c r="T12">
+        <v>0.002905795882910811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8588486666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.576546</v>
+      </c>
+      <c r="I13">
+        <v>0.1446584454151923</v>
+      </c>
+      <c r="J13">
+        <v>0.1447898527867798</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.167394</v>
+      </c>
+      <c r="N13">
+        <v>0.502182</v>
+      </c>
+      <c r="O13">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="P13">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="Q13">
+        <v>0.143766113708</v>
+      </c>
+      <c r="R13">
+        <v>1.293895023372</v>
+      </c>
+      <c r="S13">
+        <v>0.004941562149754683</v>
+      </c>
+      <c r="T13">
+        <v>0.004946051052506066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.678684438802278</v>
-      </c>
-      <c r="H4">
-        <v>0.678684438802278</v>
-      </c>
-      <c r="I4">
-        <v>0.303792477713129</v>
-      </c>
-      <c r="J4">
-        <v>0.303792477713129</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>3.09774379177032</v>
-      </c>
-      <c r="N4">
-        <v>3.09774379177032</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.10239050687088</v>
-      </c>
-      <c r="R4">
-        <v>2.10239050687088</v>
-      </c>
-      <c r="S4">
-        <v>0.303792477713129</v>
-      </c>
-      <c r="T4">
-        <v>0.303792477713129</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.016165</v>
+      </c>
+      <c r="H14">
+        <v>0.03233</v>
+      </c>
+      <c r="I14">
+        <v>0.002722719218057722</v>
+      </c>
+      <c r="J14">
+        <v>0.001816795019610203</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.634525666666667</v>
+      </c>
+      <c r="N14">
+        <v>13.903577</v>
+      </c>
+      <c r="O14">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="P14">
+        <v>0.9457707374909784</v>
+      </c>
+      <c r="Q14">
+        <v>0.07491710740166667</v>
+      </c>
+      <c r="R14">
+        <v>0.44950264441</v>
+      </c>
+      <c r="S14">
+        <v>0.002575068162843312</v>
+      </c>
+      <c r="T14">
+        <v>0.001718271565566678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.016165</v>
+      </c>
+      <c r="H15">
+        <v>0.03233</v>
+      </c>
+      <c r="I15">
+        <v>0.002722719218057722</v>
+      </c>
+      <c r="J15">
+        <v>0.001816795019610203</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09834366666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.295031</v>
+      </c>
+      <c r="O15">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="P15">
+        <v>0.02006905751323568</v>
+      </c>
+      <c r="Q15">
+        <v>0.001589725371666667</v>
+      </c>
+      <c r="R15">
+        <v>0.009538352229999998</v>
+      </c>
+      <c r="S15">
+        <v>5.464240857959252E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.646136373831731E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.016165</v>
+      </c>
+      <c r="H16">
+        <v>0.03233</v>
+      </c>
+      <c r="I16">
+        <v>0.002722719218057722</v>
+      </c>
+      <c r="J16">
+        <v>0.001816795019610203</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.167394</v>
+      </c>
+      <c r="N16">
+        <v>0.502182</v>
+      </c>
+      <c r="O16">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="P16">
+        <v>0.03416020499578595</v>
+      </c>
+      <c r="Q16">
+        <v>0.00270592401</v>
+      </c>
+      <c r="R16">
+        <v>0.01623554406</v>
+      </c>
+      <c r="S16">
+        <v>9.300864663481781E-05</v>
+      </c>
+      <c r="T16">
+        <v>6.206209030520747E-05</v>
       </c>
     </row>
   </sheetData>
